--- a/static/申报专业导入模板.xlsx
+++ b/static/申报专业导入模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,50 +9,247 @@
   <sheets>
     <sheet name="学科分类" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>学科分类名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼吸病学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消化病学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血液学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肾脏病学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肿瘤学（包括：肿瘤内科、外科、放射、介入、影像、病理相关专家）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>感染病学（涵盖艾滋病、结核病、热带病与寄生虫病相关专家）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>口腔医学</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>专业分类名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼吸病学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消化病学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血液学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾脏病学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心血管病学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经病学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内分泌学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝病学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖尿病学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风湿病学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变态反应学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感染病学专家指导委员会（涵盖艾滋病、结核病、热带病与寄生虫病相关专家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通外科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动医疗专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手外科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泌尿外科学专家指导委员会（包括男科学专家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸外科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心血管外科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神经外科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整形外科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烧伤外科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>器官移植学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显微外科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小儿外科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤性病学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神病学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿瘤学专家指导委员会（包括：肿瘤内科、外科、放射、介入、影像、病理相关专家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急诊医学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重症医学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全科医学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻醉学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疼痛学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇产科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>围产医学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇科肿瘤学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口腔医学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼科学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>耳鼻咽喉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头颈外科学专家指导委员会</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病理学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理医学与康复学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像医学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验医学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老年医学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学伦理学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床流行病学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学信息学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠外肠内营养学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灾难医学专家指导委员会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创伤学专家指导委员会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +269,19 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -110,12 +320,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -132,7 +347,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -206,7 +421,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -241,7 +455,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,58 +630,390 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="65.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="77.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="42.25" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="D53" s="3"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/static/申报专业导入模板.xlsx
+++ b/static/申报专业导入模板.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="学科分类" sheetId="1" r:id="rId1"/>
+    <sheet name="专业分类" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -633,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
